--- a/diagnostice.xlsx
+++ b/diagnostice.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFA2334-DDFA-4449-BA72-F42ACDDA7A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -58,16 +60,183 @@
   </si>
   <si>
     <t xml:space="preserve">Fractură </t>
+  </si>
+  <si>
+    <t>json-pacienti adrese</t>
+  </si>
+  <si>
+    <t>sql-tratamente-diag fara detalii cu medicamente fara detalii si cu pacient, medici</t>
+  </si>
+  <si>
+    <t>xls-diagnostic-ctg-detalii</t>
+  </si>
+  <si>
+    <t>csv-mediccamente-ctg-detalii</t>
+  </si>
+  <si>
+    <t>medicament 1</t>
+  </si>
+  <si>
+    <t>medicament 2</t>
+  </si>
+  <si>
+    <t>medicament 3</t>
+  </si>
+  <si>
+    <t>medicament 4</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>judete si orase pe un alt nivel</t>
+  </si>
+  <si>
+    <t>tratamente</t>
+  </si>
+  <si>
+    <t>doctori</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; id</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>medicamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; cnp</t>
+  </si>
+  <si>
+    <t>pacient</t>
+  </si>
+  <si>
+    <t>medici</t>
+  </si>
+  <si>
+    <t>nume</t>
+  </si>
+  <si>
+    <t>pren</t>
+  </si>
+  <si>
+    <t>pacienti</t>
+  </si>
+  <si>
+    <t>cnp</t>
+  </si>
+  <si>
+    <t>diagnostice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DENUMIRE</t>
+  </si>
+  <si>
+    <t>CONCENTRATIE</t>
+  </si>
+  <si>
+    <t>LOT</t>
+  </si>
+  <si>
+    <t>REACTII ADVERSE</t>
+  </si>
+  <si>
+    <t>un tratament este atribuit pe baza unui diagnostic</t>
+  </si>
+  <si>
+    <t>un medicament este atribuit unui pacient pe baza unui diagnostic printr-un tratament</t>
+  </si>
+  <si>
+    <t>un tratament este atribuit de catre un medic</t>
+  </si>
+  <si>
+    <t>un tratament este atribuit unui pacient</t>
+  </si>
+  <si>
+    <t>prin id</t>
+  </si>
+  <si>
+    <t>prin cnp</t>
+  </si>
+  <si>
+    <t>prin id medicament (NUR, PA, OZ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,14 +262,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{70524802-3845-44A6-AA2F-8BEDC9943060}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -374,137 +546,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5327AD0B-6314-4A64-BC6F-5B42E9F44A3F}">
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
